--- a/data/2024/fid/FID-ALT-KA-DE-16.xlsx
+++ b/data/2024/fid/FID-ALT-KA-DE-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1006">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -205,10 +205,10 @@
     <t>32.1940; 33.1949 - 93.2009(2012); 94.2014 -</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-3-19;DE-12;DE-14;DE-15;DE-17-1;DE-18;DE-20;DE-29;DE-30;DE-33;DE-38;DE-43;DE-66;DE-123;DE-107;DE-355;DE-37;DE-22;DE-70;DE-824;DE-235;DE-Wim7;DE-Mb50;DE-68;DE-185;DE-Ka23a;DE-F36;DE-186</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-3-19;DE-7;DE-12;DE-14;DE-15;DE-17-1;DE-18;DE-20;DE-29;DE-30;DE-33;DE-38;DE-43;DE-66;DE-123;DE-56;DE-107;DE-355;DE-37;DE-22;DE-70;DE-824;DE-235;DE-Au3;DE-Wim7;DE-Mb50;DE-68;DE-185;DE-Ka23a;DE-F36;DE-186</t>
   </si>
   <si>
     <t>401008-5</t>
@@ -370,193 +370,193 @@
     <t>1.1941-83 (2021)</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-12;DE-23;DE-Mar1</t>
+  </si>
+  <si>
+    <t>127331-0</t>
+  </si>
+  <si>
+    <t>Bibliographie analytique de l'Afrique antique</t>
+  </si>
+  <si>
+    <t>Ecole</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>1592-1719</t>
+  </si>
+  <si>
+    <t>930;700</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;FID-ALT-KA-DE-16;6,12;6,23;FID-AFRIKA-DE-30</t>
+  </si>
+  <si>
+    <t>1.1961/62(1969) - 3.1965/66(1969); 4.1967(1970) -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DE-1;DE-5;DE-11;DE-12;DE-19;DE-703;DE-824</t>
+  </si>
+  <si>
+    <t>188764-6</t>
+  </si>
+  <si>
+    <t>b;rb;ee</t>
+  </si>
+  <si>
+    <t>Kölner Römer-Illustrierte</t>
+  </si>
+  <si>
+    <t>Römisch-Germanisches Museum;Röm.-German. Museum;Histor. Museen</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>0179-5511</t>
+  </si>
+  <si>
+    <t>1.1974 -3; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>DE-1a</t>
+  </si>
+  <si>
+    <t>193214-7</t>
+  </si>
+  <si>
+    <t>Rivista di studi fenici</t>
+  </si>
+  <si>
+    <t>Edizioni Quasar;Fabrizio Serra Editore</t>
+  </si>
+  <si>
+    <t>Roma;Pisa</t>
+  </si>
+  <si>
+    <t>0390-3877</t>
+  </si>
+  <si>
+    <t>6,22;6,14;6,11;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1973 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12;DE-21;DE-824;DE-F36</t>
+  </si>
+  <si>
+    <t>202641-7</t>
+  </si>
+  <si>
+    <t>b;ra</t>
+  </si>
+  <si>
+    <t>Antike Welt</t>
+  </si>
+  <si>
+    <t>Wissenschaftliche Buchgesellschaft;Raggi-Verl.;von @Zabern;von @Zabern</t>
+  </si>
+  <si>
+    <t>Darmstadt;[Wechselnde Verlagsorte];Mainz</t>
+  </si>
+  <si>
+    <t>0003-570X</t>
+  </si>
+  <si>
+    <t>6,12;0;1;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1970 -</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-5;DE-8;DE-11;DE-12;DE-14;DE-15;DE-17-1;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-28;DE-30;DE-31;DE-33;DE-34-30;DE-36;DE-43;DE-46;DE-61;DE-66;DE-84;DE-56;DE-89-19;DE-93;DE-107;DE-109;DE-180;DE-Sa27;DE-352;DE-355;DE-155;DE-54;DE-361;DE-384;DE-37;DE-Di1;DE-385;DE-465;DE-467;DE-468;DE-22;DE-70;DE-547;DE-703;DE-708;DE-715;DE-739;DE-824;DE-235;DE-929;DE-Mch1;DE-Ch1;DE-834;DE-Wim7;DE-Lg1;DE-634;DE-136;DE-52;DE-51;DE-Ka23a;DE-F36;DE-122</t>
+  </si>
+  <si>
+    <t>206079-6</t>
+  </si>
+  <si>
+    <t>Istanbuler Mitteilungen</t>
+  </si>
+  <si>
+    <t>Reichert Verlag;Wasmuth;Gebr. Mann Verlag</t>
+  </si>
+  <si>
+    <t>Wiesbaden;Istanbul;Tübingen;Berlin</t>
+  </si>
+  <si>
+    <t>0341-9142</t>
+  </si>
+  <si>
+    <t>890;930</t>
+  </si>
+  <si>
+    <t>6,22;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1933 -</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>DE-1;DE-5;DE-11;DE-12;DE-17-2;DE-19;DE-20;DE-24;DE-26;DE-28;DE-29;DE-31;DE-43;DE-180;DE-352;DE-355;DE-384;DE-385;DE-473;DE-824;DE-F36</t>
+  </si>
+  <si>
+    <t>208203-2</t>
+  </si>
+  <si>
+    <t>Annual report and bulletin</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>215056-6</t>
+  </si>
+  <si>
+    <t>1.1937 - 13.1955/56(1958)</t>
+  </si>
+  <si>
+    <t>209774-6</t>
+  </si>
+  <si>
+    <t>Revue archéologique de Narbonnaise</t>
+  </si>
+  <si>
+    <t>Éd. de l'Association de la Revue Archéologique de Narbonnaise</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>0557-7705</t>
+  </si>
+  <si>
+    <t>6,14;6,11;8,2;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1968 -</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>DE-1a;DE-3;DE-12;DE-Mar1</t>
-  </si>
-  <si>
-    <t>127331-0</t>
-  </si>
-  <si>
-    <t>Bibliographie analytique de l'Afrique antique</t>
-  </si>
-  <si>
-    <t>Ecole</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>1592-1719</t>
-  </si>
-  <si>
-    <t>930;700</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;FID-ALT-KA-DE-16;6,12;6,23;FID-AFRIKA-DE-30</t>
-  </si>
-  <si>
-    <t>1.1961/62(1969) - 3.1965/66(1969); 4.1967(1970) -</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>DE-1;DE-5;DE-11;DE-12;DE-19;DE-703;DE-824</t>
-  </si>
-  <si>
-    <t>188764-6</t>
-  </si>
-  <si>
-    <t>b;rb;ee</t>
-  </si>
-  <si>
-    <t>Kölner Römer-Illustrierte</t>
-  </si>
-  <si>
-    <t>Römisch-Germanisches Museum;Röm.-German. Museum;Histor. Museen</t>
-  </si>
-  <si>
-    <t>Köln</t>
-  </si>
-  <si>
-    <t>0179-5511</t>
-  </si>
-  <si>
-    <t>1.1974 -3; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>DE-1a</t>
-  </si>
-  <si>
-    <t>193214-7</t>
-  </si>
-  <si>
-    <t>Rivista di studi fenici</t>
-  </si>
-  <si>
-    <t>Edizioni Quasar;Fabrizio Serra Editore</t>
-  </si>
-  <si>
-    <t>Roma;Pisa</t>
-  </si>
-  <si>
-    <t>0390-3877</t>
-  </si>
-  <si>
-    <t>6,22;6,14;6,11;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1973 -</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-21;DE-824;DE-F36</t>
-  </si>
-  <si>
-    <t>202641-7</t>
-  </si>
-  <si>
-    <t>b;ra</t>
-  </si>
-  <si>
-    <t>Antike Welt</t>
-  </si>
-  <si>
-    <t>Wissenschaftliche Buchgesellschaft;Raggi-Verl.;von @Zabern;von @Zabern</t>
-  </si>
-  <si>
-    <t>Darmstadt;[Wechselnde Verlagsorte];Mainz</t>
-  </si>
-  <si>
-    <t>0003-570X</t>
-  </si>
-  <si>
-    <t>6,12;0;1;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1970 -</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-5;DE-8;DE-11;DE-12;DE-14;DE-15;DE-17-1;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-28;DE-30;DE-31;DE-33;DE-34-30;DE-36;DE-43;DE-46;DE-61;DE-66;DE-93;DE-107;DE-109;DE-180;DE-Sa27;DE-352;DE-355;DE-155;DE-54;DE-361;DE-384;DE-37;DE-Di1;DE-385;DE-465;DE-467;DE-468;DE-22;DE-70;DE-547;DE-703;DE-708;DE-715;DE-739;DE-824;DE-235;DE-929;DE-Mch1;DE-Ch1;DE-Wim7;DE-Lg1;DE-634;DE-136;DE-52;DE-51;DE-Ka23a;DE-F36;DE-122</t>
-  </si>
-  <si>
-    <t>206079-6</t>
-  </si>
-  <si>
-    <t>Istanbuler Mitteilungen</t>
-  </si>
-  <si>
-    <t>Reichert Verlag;Wasmuth;Gebr. Mann Verlag</t>
-  </si>
-  <si>
-    <t>Wiesbaden;Istanbul;Tübingen;Berlin</t>
-  </si>
-  <si>
-    <t>0341-9142</t>
-  </si>
-  <si>
-    <t>890;930</t>
-  </si>
-  <si>
-    <t>6,22;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1933 -</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>DE-1;DE-5;DE-11;DE-12;DE-17-2;DE-19;DE-20;DE-24;DE-26;DE-29;DE-31;DE-43;DE-180;DE-352;DE-355;DE-384;DE-385;DE-473;DE-824;DE-F36</t>
-  </si>
-  <si>
-    <t>208203-2</t>
-  </si>
-  <si>
-    <t>Annual report and bulletin</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>215056-6</t>
-  </si>
-  <si>
-    <t>1.1937 - 13.1955/56(1958)</t>
-  </si>
-  <si>
-    <t>209774-6</t>
-  </si>
-  <si>
-    <t>Revue archéologique de Narbonnaise</t>
-  </si>
-  <si>
-    <t>Éd. de l'Association de la Revue Archéologique de Narbonnaise</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>0557-7705</t>
-  </si>
-  <si>
-    <t>6,14;6,11;8,2;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1968 -</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-F36</t>
+    <t>DE-7;DE-12;DE-19;DE-F36</t>
   </si>
   <si>
     <t>212056-2</t>
@@ -688,10 +688,7 @@
     <t>1.1975 -</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-15;DE-F42;DE-473;DE-824</t>
+    <t>DE-1a;DE-12;DE-15;DE-F42;DE-473;DE-700;DE-824</t>
   </si>
   <si>
     <t>721143-0</t>
@@ -1811,9 +1808,6 @@
   </si>
   <si>
     <t>https://savingplaces.org/preservation-magazine/issues/;http://www.bibliothek.uni-regensburg.de/ezeit/?2910796</t>
-  </si>
-  <si>
-    <t>33</t>
   </si>
   <si>
     <t>DE-8;DE-12;DE-M352;DE-19;DE-M347;DE-20;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-91;DE-861;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-521;DE-547;DE-703;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
@@ -4370,30 +4364,30 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
         <v>146</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>150</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>151</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -4402,34 +4396,34 @@
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
         <v>69</v>
       </c>
       <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
         <v>154</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>155</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -4447,30 +4441,30 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
         <v>156</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -4479,34 +4473,34 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
         <v>164</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>165</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -4524,15 +4518,15 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
         <v>166</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -4541,13 +4535,13 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -4577,13 +4571,13 @@
         <v>32</v>
       </c>
       <c r="P16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
         <v>171</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>172</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -4609,7 +4603,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -4618,13 +4612,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" t="s">
         <v>174</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>175</v>
-      </c>
-      <c r="F17" t="s">
-        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>124</v>
@@ -4633,34 +4627,34 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
         <v>69</v>
       </c>
       <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
         <v>178</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>179</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -4678,7 +4672,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
         <v>180</v>
@@ -4932,7 +4926,7 @@
         <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>212</v>
@@ -5063,15 +5057,15 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y22" t="s">
         <v>224</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5080,13 +5074,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
         <v>227</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>228</v>
-      </c>
-      <c r="F23" t="s">
-        <v>229</v>
       </c>
       <c r="G23" t="s">
         <v>124</v>
@@ -5095,10 +5089,10 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
         <v>230</v>
-      </c>
-      <c r="J23" t="s">
-        <v>231</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -5122,7 +5116,7 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -5140,15 +5134,15 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -5157,13 +5151,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
         <v>212</v>
@@ -5199,7 +5193,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -5225,7 +5219,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -5234,22 +5228,22 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" t="s">
         <v>238</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>239</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
         <v>240</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>241</v>
       </c>
       <c r="J25" t="s">
         <v>69</v>
@@ -5276,7 +5270,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -5302,7 +5296,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5311,49 +5305,49 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
         <v>244</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>245</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
         <v>246</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>247</v>
       </c>
       <c r="J26" t="s">
         <v>69</v>
       </c>
       <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
         <v>248</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>249</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -5388,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
         <v>203</v>
@@ -5430,7 +5424,7 @@
         <v>201</v>
       </c>
       <c r="R27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -5456,7 +5450,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -5465,13 +5459,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" t="s">
         <v>253</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>254</v>
-      </c>
-      <c r="F28" t="s">
-        <v>255</v>
       </c>
       <c r="G28" t="s">
         <v>124</v>
@@ -5507,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -5533,22 +5527,22 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
         <v>257</v>
-      </c>
-      <c r="B29" t="s">
-        <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" t="s">
         <v>259</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>260</v>
-      </c>
-      <c r="F29" t="s">
-        <v>261</v>
       </c>
       <c r="G29" t="s">
         <v>212</v>
@@ -5557,7 +5551,7 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
         <v>69</v>
@@ -5584,13 +5578,13 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S29" t="s">
         <v>263</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>264</v>
-      </c>
-      <c r="T29" t="s">
-        <v>265</v>
       </c>
       <c r="U29" t="s">
         <v>32</v>
@@ -5619,7 +5613,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
         <v>203</v>
@@ -5661,7 +5655,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -5687,7 +5681,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -5696,13 +5690,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" t="s">
         <v>269</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>270</v>
-      </c>
-      <c r="F31" t="s">
-        <v>271</v>
       </c>
       <c r="G31" t="s">
         <v>124</v>
@@ -5711,13 +5705,13 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
         <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -5738,7 +5732,7 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -5759,12 +5753,12 @@
         <v>81</v>
       </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -5773,10 +5767,10 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" t="s">
         <v>276</v>
-      </c>
-      <c r="E32" t="s">
-        <v>277</v>
       </c>
       <c r="F32" t="s">
         <v>105</v>
@@ -5788,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
         <v>69</v>
@@ -5815,7 +5809,7 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -5841,22 +5835,22 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" t="s">
         <v>281</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>282</v>
-      </c>
-      <c r="F33" t="s">
-        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>57</v>
@@ -5865,10 +5859,10 @@
         <v>32</v>
       </c>
       <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
         <v>284</v>
-      </c>
-      <c r="J33" t="s">
-        <v>285</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -5889,36 +5883,36 @@
         <v>32</v>
       </c>
       <c r="Q33" t="s">
+        <v>285</v>
+      </c>
+      <c r="R33" t="s">
         <v>286</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>287</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
+        <v>264</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
         <v>288</v>
       </c>
-      <c r="T33" t="s">
-        <v>265</v>
-      </c>
-      <c r="U33" t="s">
-        <v>32</v>
-      </c>
-      <c r="V33" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>289</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -5927,13 +5921,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" t="s">
         <v>292</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>293</v>
-      </c>
-      <c r="F34" t="s">
-        <v>294</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -5945,31 +5939,31 @@
         <v>32</v>
       </c>
       <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
         <v>295</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
         <v>296</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" t="s">
-        <v>297</v>
       </c>
       <c r="S34" t="s">
         <v>32</v>
@@ -5995,22 +5989,22 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
         <v>298</v>
       </c>
-      <c r="B35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>299</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>300</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>301</v>
-      </c>
-      <c r="F35" t="s">
-        <v>302</v>
       </c>
       <c r="G35" t="s">
         <v>57</v>
@@ -6019,40 +6013,40 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
         <v>126</v>
       </c>
       <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
         <v>304</v>
       </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>305</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>306</v>
-      </c>
-      <c r="T35" t="s">
-        <v>307</v>
       </c>
       <c r="U35" t="s">
         <v>32</v>
@@ -6072,7 +6066,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -6081,13 +6075,13 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" t="s">
         <v>309</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>310</v>
-      </c>
-      <c r="F36" t="s">
-        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>87</v>
@@ -6096,34 +6090,34 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
         <v>69</v>
       </c>
       <c r="K36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" t="s">
         <v>313</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" t="s">
-        <v>314</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -6149,22 +6143,22 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
         <v>315</v>
       </c>
-      <c r="B37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>316</v>
-      </c>
-      <c r="D37" t="s">
-        <v>317</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
         <v>57</v>
@@ -6200,13 +6194,13 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
+        <v>318</v>
+      </c>
+      <c r="S37" t="s">
         <v>319</v>
       </c>
-      <c r="S37" t="s">
-        <v>320</v>
-      </c>
       <c r="T37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U37" t="s">
         <v>32</v>
@@ -6226,7 +6220,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -6235,13 +6229,13 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" t="s">
         <v>322</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>323</v>
-      </c>
-      <c r="F38" t="s">
-        <v>324</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -6250,7 +6244,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
         <v>69</v>
@@ -6277,7 +6271,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -6303,7 +6297,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -6312,49 +6306,49 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" t="s">
         <v>328</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>329</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>330</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
         <v>331</v>
       </c>
-      <c r="H39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>332</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>333</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="s">
         <v>334</v>
-      </c>
-      <c r="L39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" t="s">
-        <v>335</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -6375,27 +6369,27 @@
         <v>50</v>
       </c>
       <c r="Y39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" t="s">
         <v>337</v>
       </c>
-      <c r="B40" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>338</v>
-      </c>
-      <c r="D40" t="s">
-        <v>339</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
         <v>57</v>
@@ -6404,7 +6398,7 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
         <v>126</v>
@@ -6431,13 +6425,13 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
+        <v>341</v>
+      </c>
+      <c r="S40" t="s">
         <v>342</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>343</v>
-      </c>
-      <c r="T40" t="s">
-        <v>344</v>
       </c>
       <c r="U40" t="s">
         <v>32</v>
@@ -6457,7 +6451,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -6466,49 +6460,49 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41" t="s">
         <v>346</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
         <v>347</v>
       </c>
-      <c r="F41" t="s">
-        <v>330</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
         <v>348</v>
       </c>
-      <c r="H41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>349</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>350</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" t="s">
         <v>351</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" t="s">
-        <v>352</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -6529,27 +6523,27 @@
         <v>50</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" t="s">
         <v>355</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>356</v>
-      </c>
-      <c r="F42" t="s">
-        <v>357</v>
       </c>
       <c r="G42" t="s">
         <v>212</v>
@@ -6558,7 +6552,7 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
         <v>69</v>
@@ -6585,48 +6579,48 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
+        <v>358</v>
+      </c>
+      <c r="S42" t="s">
         <v>359</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
+        <v>264</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" t="s">
+        <v>32</v>
+      </c>
+      <c r="X42" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y42" t="s">
         <v>360</v>
-      </c>
-      <c r="T42" t="s">
-        <v>265</v>
-      </c>
-      <c r="U42" t="s">
-        <v>32</v>
-      </c>
-      <c r="V42" t="s">
-        <v>32</v>
-      </c>
-      <c r="W42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43" t="s">
         <v>356</v>
-      </c>
-      <c r="F43" t="s">
-        <v>357</v>
       </c>
       <c r="G43" t="s">
         <v>212</v>
@@ -6635,7 +6629,7 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
         <v>69</v>
@@ -6662,13 +6656,13 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
+        <v>364</v>
+      </c>
+      <c r="S43" t="s">
         <v>365</v>
       </c>
-      <c r="S43" t="s">
-        <v>366</v>
-      </c>
       <c r="T43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U43" t="s">
         <v>32</v>
@@ -6680,30 +6674,30 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" t="s">
         <v>356</v>
-      </c>
-      <c r="F44" t="s">
-        <v>357</v>
       </c>
       <c r="G44" t="s">
         <v>212</v>
@@ -6712,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
         <v>69</v>
@@ -6733,19 +6727,19 @@
         <v>32</v>
       </c>
       <c r="P44" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" t="s">
         <v>370</v>
       </c>
-      <c r="Q44" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>371</v>
       </c>
-      <c r="S44" t="s">
-        <v>372</v>
-      </c>
       <c r="T44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U44" t="s">
         <v>32</v>
@@ -6765,22 +6759,22 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" t="s">
         <v>373</v>
       </c>
-      <c r="B45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" t="s">
-        <v>338</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>374</v>
       </c>
-      <c r="E45" t="s">
-        <v>375</v>
-      </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
         <v>57</v>
@@ -6789,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J45" t="s">
         <v>69</v>
@@ -6816,13 +6810,13 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
+        <v>376</v>
+      </c>
+      <c r="S45" t="s">
         <v>377</v>
       </c>
-      <c r="S45" t="s">
-        <v>378</v>
-      </c>
       <c r="T45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U45" t="s">
         <v>32</v>
@@ -6842,7 +6836,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -6851,13 +6845,13 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" t="s">
         <v>380</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>381</v>
-      </c>
-      <c r="F46" t="s">
-        <v>382</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -6866,7 +6860,7 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
         <v>69</v>
@@ -6893,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -6919,22 +6913,22 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
         <v>385</v>
       </c>
-      <c r="B47" t="s">
-        <v>258</v>
-      </c>
-      <c r="C47" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>386</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>387</v>
-      </c>
-      <c r="F47" t="s">
-        <v>388</v>
       </c>
       <c r="G47" t="s">
         <v>87</v>
@@ -6943,7 +6937,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
         <v>69</v>
@@ -6964,19 +6958,19 @@
         <v>32</v>
       </c>
       <c r="P47" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" t="s">
         <v>390</v>
       </c>
-      <c r="Q47" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>391</v>
       </c>
-      <c r="S47" t="s">
-        <v>392</v>
-      </c>
       <c r="T47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U47" t="s">
         <v>32</v>
@@ -6996,7 +6990,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -7005,49 +6999,49 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E48" t="s">
         <v>394</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>395</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>396</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
         <v>397</v>
-      </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>398</v>
       </c>
       <c r="J48" t="s">
         <v>69</v>
       </c>
       <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
         <v>399</v>
       </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>400</v>
-      </c>
-      <c r="R48" t="s">
-        <v>401</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -7068,36 +7062,36 @@
         <v>50</v>
       </c>
       <c r="Y48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" t="s">
         <v>402</v>
-      </c>
-      <c r="B49" t="s">
-        <v>258</v>
-      </c>
-      <c r="C49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" t="s">
-        <v>403</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
       </c>
       <c r="F49" t="s">
+        <v>403</v>
+      </c>
+      <c r="G49" t="s">
         <v>404</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
         <v>405</v>
-      </c>
-      <c r="H49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>406</v>
       </c>
       <c r="J49" t="s">
         <v>69</v>
@@ -7121,16 +7115,16 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
+        <v>406</v>
+      </c>
+      <c r="R49" t="s">
         <v>407</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>408</v>
       </c>
-      <c r="S49" t="s">
-        <v>409</v>
-      </c>
       <c r="T49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U49" t="s">
         <v>32</v>
@@ -7142,30 +7136,30 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y49" t="s">
         <v>289</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" t="s">
         <v>410</v>
       </c>
-      <c r="B50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>411</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>412</v>
-      </c>
-      <c r="F50" t="s">
-        <v>413</v>
       </c>
       <c r="G50" t="s">
         <v>57</v>
@@ -7174,10 +7168,10 @@
         <v>32</v>
       </c>
       <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
         <v>414</v>
-      </c>
-      <c r="J50" t="s">
-        <v>415</v>
       </c>
       <c r="K50" t="s">
         <v>89</v>
@@ -7195,19 +7189,19 @@
         <v>32</v>
       </c>
       <c r="P50" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" t="s">
         <v>416</v>
       </c>
-      <c r="Q50" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>417</v>
       </c>
-      <c r="S50" t="s">
-        <v>418</v>
-      </c>
       <c r="T50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U50" t="s">
         <v>32</v>
@@ -7227,31 +7221,31 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
       </c>
       <c r="F51" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" t="s">
         <v>404</v>
       </c>
-      <c r="G51" t="s">
-        <v>405</v>
-      </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J51" t="s">
         <v>69</v>
@@ -7272,19 +7266,19 @@
         <v>32</v>
       </c>
       <c r="P51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q51" t="s">
         <v>32</v>
       </c>
       <c r="R51" t="s">
+        <v>420</v>
+      </c>
+      <c r="S51" t="s">
         <v>421</v>
       </c>
-      <c r="S51" t="s">
-        <v>422</v>
-      </c>
       <c r="T51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U51" t="s">
         <v>32</v>
@@ -7304,25 +7298,25 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
         <v>423</v>
       </c>
-      <c r="B52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>424</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>425</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>426</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>427</v>
-      </c>
-      <c r="G52" t="s">
-        <v>428</v>
       </c>
       <c r="H52" t="s">
         <v>32</v>
@@ -7355,48 +7349,48 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
+        <v>428</v>
+      </c>
+      <c r="S52" t="s">
         <v>429</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
+        <v>306</v>
+      </c>
+      <c r="U52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" t="s">
+        <v>32</v>
+      </c>
+      <c r="W52" t="s">
+        <v>32</v>
+      </c>
+      <c r="X52" t="s">
         <v>430</v>
       </c>
-      <c r="T52" t="s">
-        <v>307</v>
-      </c>
-      <c r="U52" t="s">
-        <v>32</v>
-      </c>
-      <c r="V52" t="s">
-        <v>32</v>
-      </c>
-      <c r="W52" t="s">
-        <v>32</v>
-      </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>431</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
+        <v>433</v>
+      </c>
+      <c r="E53" t="s">
         <v>434</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>435</v>
-      </c>
-      <c r="F53" t="s">
-        <v>436</v>
       </c>
       <c r="G53" t="s">
         <v>212</v>
@@ -7408,34 +7402,34 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
         <v>437</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" t="s">
         <v>438</v>
       </c>
-      <c r="L53" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>439</v>
-      </c>
-      <c r="S53" t="s">
-        <v>440</v>
       </c>
       <c r="T53" t="s">
         <v>32</v>
@@ -7458,22 +7452,22 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
+        <v>441</v>
+      </c>
+      <c r="E54" t="s">
         <v>442</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>443</v>
-      </c>
-      <c r="F54" t="s">
-        <v>444</v>
       </c>
       <c r="G54" t="s">
         <v>57</v>
@@ -7512,10 +7506,10 @@
         <v>32</v>
       </c>
       <c r="S54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U54" t="s">
         <v>32</v>
@@ -7535,31 +7529,31 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E55" t="s">
         <v>447</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>448</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>449</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
         <v>450</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>451</v>
       </c>
       <c r="J55" t="s">
         <v>69</v>
@@ -7586,13 +7580,13 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
+        <v>451</v>
+      </c>
+      <c r="S55" t="s">
         <v>452</v>
       </c>
-      <c r="S55" t="s">
-        <v>453</v>
-      </c>
       <c r="T55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U55" t="s">
         <v>32</v>
@@ -7612,7 +7606,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -7621,10 +7615,10 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
+        <v>454</v>
+      </c>
+      <c r="E56" t="s">
         <v>455</v>
-      </c>
-      <c r="E56" t="s">
-        <v>456</v>
       </c>
       <c r="F56" t="s">
         <v>96</v>
@@ -7660,10 +7654,10 @@
         <v>32</v>
       </c>
       <c r="Q56" t="s">
+        <v>456</v>
+      </c>
+      <c r="R56" t="s">
         <v>457</v>
-      </c>
-      <c r="R56" t="s">
-        <v>458</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -7684,12 +7678,12 @@
         <v>81</v>
       </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -7698,16 +7692,16 @@
         <v>111</v>
       </c>
       <c r="D57" t="s">
+        <v>460</v>
+      </c>
+      <c r="E57" t="s">
         <v>461</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>462</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>463</v>
-      </c>
-      <c r="G57" t="s">
-        <v>464</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -7719,28 +7713,28 @@
         <v>69</v>
       </c>
       <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" t="s">
         <v>465</v>
-      </c>
-      <c r="L57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R57" t="s">
-        <v>466</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -7766,7 +7760,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7775,13 +7769,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
+        <v>467</v>
+      </c>
+      <c r="E58" t="s">
         <v>468</v>
       </c>
-      <c r="E58" t="s">
-        <v>469</v>
-      </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G58" t="s">
         <v>87</v>
@@ -7790,13 +7784,13 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J58" t="s">
         <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -7817,7 +7811,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -7835,15 +7829,15 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="Y58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -7852,10 +7846,10 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" t="s">
         <v>474</v>
-      </c>
-      <c r="E59" t="s">
-        <v>475</v>
       </c>
       <c r="F59" t="s">
         <v>76</v>
@@ -7867,10 +7861,10 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
         <v>476</v>
-      </c>
-      <c r="J59" t="s">
-        <v>477</v>
       </c>
       <c r="K59" t="s">
         <v>34</v>
@@ -7894,7 +7888,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -7915,27 +7909,27 @@
         <v>81</v>
       </c>
       <c r="Y59" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" t="s">
+        <v>480</v>
+      </c>
+      <c r="E60" t="s">
         <v>481</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>482</v>
-      </c>
-      <c r="F60" t="s">
-        <v>483</v>
       </c>
       <c r="G60" t="s">
         <v>212</v>
@@ -7944,75 +7938,75 @@
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J60" t="s">
         <v>69</v>
       </c>
       <c r="K60" t="s">
+        <v>484</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" t="s">
         <v>485</v>
       </c>
-      <c r="L60" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>486</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>487</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" t="s">
+        <v>32</v>
+      </c>
+      <c r="X60" t="s">
         <v>488</v>
       </c>
-      <c r="U60" t="s">
-        <v>32</v>
-      </c>
-      <c r="V60" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" t="s">
-        <v>32</v>
-      </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>489</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" t="s">
+        <v>491</v>
+      </c>
+      <c r="E61" t="s">
         <v>492</v>
       </c>
-      <c r="E61" t="s">
-        <v>493</v>
-      </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
         <v>57</v>
@@ -8051,10 +8045,10 @@
         <v>32</v>
       </c>
       <c r="S61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U61" t="s">
         <v>32</v>
@@ -8074,22 +8068,22 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" t="s">
+        <v>495</v>
+      </c>
+      <c r="E62" t="s">
         <v>496</v>
       </c>
-      <c r="E62" t="s">
-        <v>497</v>
-      </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
         <v>124</v>
@@ -8101,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K62" t="s">
         <v>34</v>
@@ -8125,48 +8119,48 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
+        <v>498</v>
+      </c>
+      <c r="S62" t="s">
         <v>499</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
+        <v>264</v>
+      </c>
+      <c r="U62" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" t="s">
+        <v>32</v>
+      </c>
+      <c r="W62" t="s">
+        <v>32</v>
+      </c>
+      <c r="X62" t="s">
         <v>500</v>
       </c>
-      <c r="T62" t="s">
-        <v>265</v>
-      </c>
-      <c r="U62" t="s">
-        <v>32</v>
-      </c>
-      <c r="V62" t="s">
-        <v>32</v>
-      </c>
-      <c r="W62" t="s">
-        <v>32</v>
-      </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>501</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E63" t="s">
         <v>504</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>505</v>
-      </c>
-      <c r="F63" t="s">
-        <v>506</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -8202,13 +8196,13 @@
         <v>32</v>
       </c>
       <c r="R63" t="s">
+        <v>506</v>
+      </c>
+      <c r="S63" t="s">
         <v>507</v>
       </c>
-      <c r="S63" t="s">
-        <v>508</v>
-      </c>
       <c r="T63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U63" t="s">
         <v>32</v>
@@ -8220,30 +8214,30 @@
         <v>32</v>
       </c>
       <c r="X63" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y63" t="s">
         <v>289</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" t="s">
         <v>509</v>
       </c>
-      <c r="B64" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" t="s">
-        <v>338</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>510</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>511</v>
-      </c>
-      <c r="F64" t="s">
-        <v>512</v>
       </c>
       <c r="G64" t="s">
         <v>57</v>
@@ -8252,7 +8246,7 @@
         <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J64" t="s">
         <v>69</v>
@@ -8279,13 +8273,13 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
+        <v>513</v>
+      </c>
+      <c r="S64" t="s">
         <v>514</v>
       </c>
-      <c r="S64" t="s">
-        <v>515</v>
-      </c>
       <c r="T64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U64" t="s">
         <v>32</v>
@@ -8305,7 +8299,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8314,10 +8308,10 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
+        <v>516</v>
+      </c>
+      <c r="E65" t="s">
         <v>517</v>
-      </c>
-      <c r="E65" t="s">
-        <v>518</v>
       </c>
       <c r="F65" t="s">
         <v>76</v>
@@ -8329,7 +8323,7 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J65" t="s">
         <v>69</v>
@@ -8356,7 +8350,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -8382,22 +8376,22 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" t="s">
+        <v>521</v>
+      </c>
+      <c r="E66" t="s">
         <v>522</v>
       </c>
-      <c r="E66" t="s">
-        <v>523</v>
-      </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G66" t="s">
         <v>87</v>
@@ -8409,7 +8403,7 @@
         <v>32</v>
       </c>
       <c r="J66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
         <v>34</v>
@@ -8433,10 +8427,10 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
+        <v>524</v>
+      </c>
+      <c r="S66" t="s">
         <v>525</v>
-      </c>
-      <c r="S66" t="s">
-        <v>526</v>
       </c>
       <c r="T66" t="s">
         <v>32</v>
@@ -8459,31 +8453,31 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E67" t="s">
         <v>528</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>529</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>530</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
         <v>531</v>
-      </c>
-      <c r="H67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" t="s">
-        <v>532</v>
       </c>
       <c r="J67" t="s">
         <v>32</v>
@@ -8510,48 +8504,48 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
+        <v>532</v>
+      </c>
+      <c r="S67" t="s">
         <v>533</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
+        <v>264</v>
+      </c>
+      <c r="U67" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" t="s">
+        <v>32</v>
+      </c>
+      <c r="W67" t="s">
+        <v>32</v>
+      </c>
+      <c r="X67" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y67" t="s">
         <v>534</v>
-      </c>
-      <c r="T67" t="s">
-        <v>265</v>
-      </c>
-      <c r="U67" t="s">
-        <v>32</v>
-      </c>
-      <c r="V67" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
+        <v>535</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" t="s">
         <v>536</v>
       </c>
-      <c r="B68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>537</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>538</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>539</v>
-      </c>
-      <c r="F68" t="s">
-        <v>540</v>
       </c>
       <c r="G68" t="s">
         <v>57</v>
@@ -8560,7 +8554,7 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J68" t="s">
         <v>69</v>
@@ -8587,13 +8581,13 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
+        <v>541</v>
+      </c>
+      <c r="S68" t="s">
         <v>542</v>
       </c>
-      <c r="S68" t="s">
-        <v>543</v>
-      </c>
       <c r="T68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U68" t="s">
         <v>32</v>
@@ -8613,22 +8607,22 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" t="s">
+        <v>544</v>
+      </c>
+      <c r="E69" t="s">
         <v>545</v>
       </c>
-      <c r="E69" t="s">
-        <v>546</v>
-      </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G69" t="s">
         <v>212</v>
@@ -8637,7 +8631,7 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
         <v>69</v>
@@ -8664,13 +8658,13 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
+        <v>547</v>
+      </c>
+      <c r="S69" t="s">
         <v>548</v>
       </c>
-      <c r="S69" t="s">
-        <v>549</v>
-      </c>
       <c r="T69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U69" t="s">
         <v>32</v>
@@ -8682,15 +8676,15 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y69" t="s">
         <v>289</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -8699,13 +8693,13 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G70" t="s">
         <v>212</v>
@@ -8714,7 +8708,7 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J70" t="s">
         <v>69</v>
@@ -8741,7 +8735,7 @@
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S70" t="s">
         <v>32</v>
@@ -8762,27 +8756,27 @@
         <v>108</v>
       </c>
       <c r="Y70" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" t="s">
+        <v>555</v>
+      </c>
+      <c r="E71" t="s">
         <v>556</v>
       </c>
-      <c r="E71" t="s">
-        <v>557</v>
-      </c>
       <c r="F71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G71" t="s">
         <v>212</v>
@@ -8791,7 +8785,7 @@
         <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J71" t="s">
         <v>69</v>
@@ -8818,33 +8812,33 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
+        <v>558</v>
+      </c>
+      <c r="S71" t="s">
         <v>559</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
+        <v>32</v>
+      </c>
+      <c r="U71" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" t="s">
+        <v>32</v>
+      </c>
+      <c r="W71" t="s">
+        <v>32</v>
+      </c>
+      <c r="X71" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y71" t="s">
         <v>560</v>
-      </c>
-      <c r="T71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U71" t="s">
-        <v>32</v>
-      </c>
-      <c r="V71" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" t="s">
-        <v>32</v>
-      </c>
-      <c r="X71" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8853,13 +8847,13 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
+        <v>562</v>
+      </c>
+      <c r="E72" t="s">
         <v>563</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>564</v>
-      </c>
-      <c r="F72" t="s">
-        <v>565</v>
       </c>
       <c r="G72" t="s">
         <v>57</v>
@@ -8877,25 +8871,25 @@
         <v>34</v>
       </c>
       <c r="L72" t="s">
+        <v>565</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72" t="s">
         <v>566</v>
-      </c>
-      <c r="M72" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
-      <c r="P72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>32</v>
-      </c>
-      <c r="R72" t="s">
-        <v>567</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -8921,34 +8915,34 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" t="s">
+        <v>568</v>
+      </c>
+      <c r="E73" t="s">
         <v>569</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>570</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>571</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
         <v>572</v>
       </c>
-      <c r="H73" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>573</v>
-      </c>
-      <c r="J73" t="s">
-        <v>574</v>
       </c>
       <c r="K73" t="s">
         <v>34</v>
@@ -8972,13 +8966,13 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
+        <v>574</v>
+      </c>
+      <c r="S73" t="s">
         <v>575</v>
       </c>
-      <c r="S73" t="s">
-        <v>576</v>
-      </c>
       <c r="T73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U73" t="s">
         <v>32</v>
@@ -8990,30 +8984,30 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y73" t="s">
         <v>289</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
+        <v>576</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" t="s">
         <v>577</v>
       </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" t="s">
-        <v>338</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>578</v>
       </c>
-      <c r="E74" t="s">
-        <v>579</v>
-      </c>
       <c r="F74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G74" t="s">
         <v>57</v>
@@ -9022,7 +9016,7 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J74" t="s">
         <v>126</v>
@@ -9031,31 +9025,31 @@
         <v>198</v>
       </c>
       <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" t="s">
         <v>581</v>
       </c>
-      <c r="M74" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>582</v>
       </c>
-      <c r="S74" t="s">
-        <v>583</v>
-      </c>
       <c r="T74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U74" t="s">
         <v>32</v>
@@ -9075,7 +9069,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9084,13 +9078,13 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
+        <v>584</v>
+      </c>
+      <c r="E75" t="s">
         <v>585</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>586</v>
-      </c>
-      <c r="F75" t="s">
-        <v>587</v>
       </c>
       <c r="G75" t="s">
         <v>212</v>
@@ -9126,7 +9120,7 @@
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -9152,7 +9146,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -9161,13 +9155,13 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
+        <v>589</v>
+      </c>
+      <c r="E76" t="s">
         <v>590</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>591</v>
-      </c>
-      <c r="F76" t="s">
-        <v>592</v>
       </c>
       <c r="G76" t="s">
         <v>212</v>
@@ -9182,7 +9176,7 @@
         <v>32</v>
       </c>
       <c r="K76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s">
         <v>32</v>
@@ -9203,7 +9197,7 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S76" t="s">
         <v>32</v>
@@ -9229,19 +9223,19 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" t="s">
+        <v>594</v>
+      </c>
+      <c r="E77" t="s">
         <v>595</v>
-      </c>
-      <c r="E77" t="s">
-        <v>596</v>
       </c>
       <c r="F77" t="s">
         <v>219</v>
@@ -9280,51 +9274,51 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
+        <v>596</v>
+      </c>
+      <c r="S77" t="s">
         <v>597</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
+        <v>264</v>
+      </c>
+      <c r="U77" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" t="s">
+        <v>32</v>
+      </c>
+      <c r="W77" t="s">
+        <v>32</v>
+      </c>
+      <c r="X77" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y77" t="s">
         <v>598</v>
-      </c>
-      <c r="T77" t="s">
-        <v>265</v>
-      </c>
-      <c r="U77" t="s">
-        <v>32</v>
-      </c>
-      <c r="V77" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" t="s">
-        <v>32</v>
-      </c>
-      <c r="X77" t="s">
-        <v>599</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" t="s">
+        <v>600</v>
+      </c>
+      <c r="E78" t="s">
+        <v>601</v>
+      </c>
+      <c r="F78" t="s">
         <v>602</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>603</v>
-      </c>
-      <c r="F78" t="s">
-        <v>604</v>
-      </c>
-      <c r="G78" t="s">
-        <v>605</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -9360,10 +9354,10 @@
         <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="T78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U78" t="s">
         <v>32</v>
@@ -9383,25 +9377,25 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" t="s">
+        <v>606</v>
+      </c>
+      <c r="E79" t="s">
+        <v>607</v>
+      </c>
+      <c r="F79" t="s">
         <v>608</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>609</v>
-      </c>
-      <c r="F79" t="s">
-        <v>610</v>
-      </c>
-      <c r="G79" t="s">
-        <v>611</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -9413,69 +9407,69 @@
         <v>69</v>
       </c>
       <c r="K79" t="s">
+        <v>610</v>
+      </c>
+      <c r="L79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79" t="s">
+        <v>611</v>
+      </c>
+      <c r="S79" t="s">
         <v>612</v>
       </c>
-      <c r="L79" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>32</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="T79" t="s">
+        <v>264</v>
+      </c>
+      <c r="U79" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" t="s">
+        <v>32</v>
+      </c>
+      <c r="W79" t="s">
+        <v>32</v>
+      </c>
+      <c r="X79" t="s">
         <v>613</v>
       </c>
-      <c r="S79" t="s">
+      <c r="Y79" t="s">
         <v>614</v>
-      </c>
-      <c r="T79" t="s">
-        <v>265</v>
-      </c>
-      <c r="U79" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" t="s">
-        <v>32</v>
-      </c>
-      <c r="X79" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
+        <v>615</v>
+      </c>
+      <c r="B80" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" t="s">
+        <v>616</v>
+      </c>
+      <c r="E80" t="s">
         <v>617</v>
       </c>
-      <c r="B80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" t="s">
-        <v>316</v>
-      </c>
-      <c r="D80" t="s">
-        <v>618</v>
-      </c>
-      <c r="E80" t="s">
-        <v>619</v>
-      </c>
       <c r="F80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G80" t="s">
         <v>57</v>
@@ -9487,7 +9481,7 @@
         <v>32</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K80" t="s">
         <v>198</v>
@@ -9511,7 +9505,7 @@
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -9537,22 +9531,22 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
+        <v>619</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E81" t="s">
         <v>621</v>
       </c>
-      <c r="B81" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" t="s">
-        <v>316</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>622</v>
-      </c>
-      <c r="E81" t="s">
-        <v>623</v>
-      </c>
-      <c r="F81" t="s">
-        <v>624</v>
       </c>
       <c r="G81" t="s">
         <v>57</v>
@@ -9582,19 +9576,19 @@
         <v>32</v>
       </c>
       <c r="P81" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81" t="s">
+        <v>624</v>
+      </c>
+      <c r="S81" t="s">
         <v>625</v>
       </c>
-      <c r="Q81" t="s">
-        <v>32</v>
-      </c>
-      <c r="R81" t="s">
-        <v>626</v>
-      </c>
-      <c r="S81" t="s">
-        <v>627</v>
-      </c>
       <c r="T81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U81" t="s">
         <v>32</v>
@@ -9614,22 +9608,22 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E82" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F82" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G82" t="s">
         <v>57</v>
@@ -9647,7 +9641,7 @@
         <v>34</v>
       </c>
       <c r="L82" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M82" t="s">
         <v>32</v>
@@ -9662,10 +9656,10 @@
         <v>32</v>
       </c>
       <c r="Q82" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R82" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -9691,22 +9685,22 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
+        <v>620</v>
+      </c>
+      <c r="E83" t="s">
+        <v>621</v>
+      </c>
+      <c r="F83" t="s">
         <v>622</v>
-      </c>
-      <c r="E83" t="s">
-        <v>623</v>
-      </c>
-      <c r="F83" t="s">
-        <v>624</v>
       </c>
       <c r="G83" t="s">
         <v>57</v>
@@ -9718,13 +9712,13 @@
         <v>32</v>
       </c>
       <c r="J83" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K83" t="s">
         <v>34</v>
       </c>
       <c r="L83" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M83" t="s">
         <v>32</v>
@@ -9742,7 +9736,7 @@
         <v>32</v>
       </c>
       <c r="R83" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -9768,22 +9762,22 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
+        <v>634</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" t="s">
+        <v>635</v>
+      </c>
+      <c r="E84" t="s">
         <v>636</v>
       </c>
-      <c r="B84" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" t="s">
-        <v>338</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>637</v>
-      </c>
-      <c r="E84" t="s">
-        <v>638</v>
-      </c>
-      <c r="F84" t="s">
-        <v>639</v>
       </c>
       <c r="G84" t="s">
         <v>57</v>
@@ -9819,7 +9813,7 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="S84" t="s">
         <v>32</v>
@@ -9845,22 +9839,22 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
+        <v>639</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>640</v>
+      </c>
+      <c r="E85" t="s">
         <v>641</v>
       </c>
-      <c r="B85" t="s">
-        <v>258</v>
-      </c>
-      <c r="C85" t="s">
-        <v>338</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>642</v>
-      </c>
-      <c r="E85" t="s">
-        <v>643</v>
-      </c>
-      <c r="F85" t="s">
-        <v>644</v>
       </c>
       <c r="G85" t="s">
         <v>57</v>
@@ -9896,7 +9890,7 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S85" t="s">
         <v>32</v>
@@ -9922,22 +9916,22 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
+        <v>644</v>
+      </c>
+      <c r="B86" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" t="s">
+        <v>645</v>
+      </c>
+      <c r="E86" t="s">
         <v>646</v>
       </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>647</v>
-      </c>
-      <c r="E86" t="s">
-        <v>648</v>
-      </c>
-      <c r="F86" t="s">
-        <v>649</v>
       </c>
       <c r="G86" t="s">
         <v>57</v>
@@ -9949,7 +9943,7 @@
         <v>32</v>
       </c>
       <c r="J86" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K86" t="s">
         <v>34</v>
@@ -9973,7 +9967,7 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="S86" t="s">
         <v>32</v>
@@ -9999,7 +9993,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -10008,25 +10002,25 @@
         <v>27</v>
       </c>
       <c r="D87" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" t="s">
+        <v>652</v>
+      </c>
+      <c r="F87" t="s">
         <v>653</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>654</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
         <v>655</v>
       </c>
-      <c r="G87" t="s">
-        <v>656</v>
-      </c>
-      <c r="H87" t="s">
-        <v>32</v>
-      </c>
-      <c r="I87" t="s">
-        <v>657</v>
-      </c>
       <c r="J87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K87" t="s">
         <v>34</v>
@@ -10050,7 +10044,7 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="S87" t="s">
         <v>32</v>
@@ -10076,25 +10070,25 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
+        <v>657</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" t="s">
+        <v>658</v>
+      </c>
+      <c r="E88" t="s">
         <v>659</v>
       </c>
-      <c r="B88" t="s">
-        <v>258</v>
-      </c>
-      <c r="C88" t="s">
-        <v>338</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>660</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>661</v>
-      </c>
-      <c r="F88" t="s">
-        <v>662</v>
-      </c>
-      <c r="G88" t="s">
-        <v>663</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -10121,19 +10115,19 @@
         <v>32</v>
       </c>
       <c r="P88" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>32</v>
+      </c>
+      <c r="R88" t="s">
+        <v>663</v>
+      </c>
+      <c r="S88" t="s">
         <v>664</v>
       </c>
-      <c r="Q88" t="s">
-        <v>32</v>
-      </c>
-      <c r="R88" t="s">
-        <v>665</v>
-      </c>
-      <c r="S88" t="s">
-        <v>666</v>
-      </c>
       <c r="T88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U88" t="s">
         <v>32</v>
@@ -10153,25 +10147,25 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D89" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E89" t="s">
+        <v>659</v>
+      </c>
+      <c r="F89" t="s">
+        <v>660</v>
+      </c>
+      <c r="G89" t="s">
         <v>661</v>
-      </c>
-      <c r="F89" t="s">
-        <v>662</v>
-      </c>
-      <c r="G89" t="s">
-        <v>663</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -10201,16 +10195,16 @@
         <v>32</v>
       </c>
       <c r="Q89" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R89" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="S89" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U89" t="s">
         <v>32</v>
@@ -10230,22 +10224,22 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E90" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G90" t="s">
         <v>57</v>
@@ -10257,7 +10251,7 @@
         <v>32</v>
       </c>
       <c r="J90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K90" t="s">
         <v>198</v>
@@ -10284,10 +10278,10 @@
         <v>32</v>
       </c>
       <c r="S90" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U90" t="s">
         <v>32</v>
@@ -10307,25 +10301,25 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s">
         <v>102</v>
       </c>
       <c r="D91" t="s">
+        <v>673</v>
+      </c>
+      <c r="E91" t="s">
+        <v>674</v>
+      </c>
+      <c r="F91" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" t="s">
         <v>675</v>
-      </c>
-      <c r="E91" t="s">
-        <v>676</v>
-      </c>
-      <c r="F91" t="s">
-        <v>294</v>
-      </c>
-      <c r="G91" t="s">
-        <v>677</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -10340,31 +10334,31 @@
         <v>34</v>
       </c>
       <c r="L91" t="s">
+        <v>676</v>
+      </c>
+      <c r="M91" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" t="s">
+        <v>32</v>
+      </c>
+      <c r="P91" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>32</v>
+      </c>
+      <c r="R91" t="s">
+        <v>677</v>
+      </c>
+      <c r="S91" t="s">
         <v>678</v>
       </c>
-      <c r="M91" t="s">
-        <v>32</v>
-      </c>
-      <c r="N91" t="s">
-        <v>32</v>
-      </c>
-      <c r="O91" t="s">
-        <v>32</v>
-      </c>
-      <c r="P91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>32</v>
-      </c>
-      <c r="R91" t="s">
-        <v>679</v>
-      </c>
-      <c r="S91" t="s">
-        <v>680</v>
-      </c>
       <c r="T91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U91" t="s">
         <v>32</v>
@@ -10384,7 +10378,7 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -10393,22 +10387,22 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
+        <v>680</v>
+      </c>
+      <c r="E92" t="s">
+        <v>681</v>
+      </c>
+      <c r="F92" t="s">
         <v>682</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>683</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
         <v>684</v>
-      </c>
-      <c r="G92" t="s">
-        <v>685</v>
-      </c>
-      <c r="H92" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" t="s">
-        <v>686</v>
       </c>
       <c r="J92" t="s">
         <v>126</v>
@@ -10432,10 +10426,10 @@
         <v>32</v>
       </c>
       <c r="Q92" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="R92" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="S92" t="s">
         <v>32</v>
@@ -10461,22 +10455,22 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E93" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G93" t="s">
         <v>57</v>
@@ -10485,10 +10479,10 @@
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J93" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K93" t="s">
         <v>34</v>
@@ -10509,51 +10503,51 @@
         <v>32</v>
       </c>
       <c r="Q93" t="s">
+        <v>692</v>
+      </c>
+      <c r="R93" t="s">
+        <v>693</v>
+      </c>
+      <c r="S93" t="s">
         <v>694</v>
       </c>
-      <c r="R93" t="s">
+      <c r="T93" t="s">
         <v>695</v>
       </c>
-      <c r="S93" t="s">
+      <c r="U93" t="s">
+        <v>32</v>
+      </c>
+      <c r="V93" t="s">
+        <v>32</v>
+      </c>
+      <c r="W93" t="s">
+        <v>32</v>
+      </c>
+      <c r="X93" t="s">
         <v>696</v>
       </c>
-      <c r="T93" t="s">
+      <c r="Y93" t="s">
         <v>697</v>
-      </c>
-      <c r="U93" t="s">
-        <v>32</v>
-      </c>
-      <c r="V93" t="s">
-        <v>32</v>
-      </c>
-      <c r="W93" t="s">
-        <v>32</v>
-      </c>
-      <c r="X93" t="s">
-        <v>698</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
+        <v>698</v>
+      </c>
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" t="s">
+        <v>699</v>
+      </c>
+      <c r="E94" t="s">
         <v>700</v>
       </c>
-      <c r="B94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C94" t="s">
-        <v>316</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>701</v>
-      </c>
-      <c r="E94" t="s">
-        <v>702</v>
-      </c>
-      <c r="F94" t="s">
-        <v>703</v>
       </c>
       <c r="G94" t="s">
         <v>57</v>
@@ -10565,7 +10559,7 @@
         <v>32</v>
       </c>
       <c r="J94" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K94" t="s">
         <v>34</v>
@@ -10589,13 +10583,13 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S94" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U94" t="s">
         <v>32</v>
@@ -10615,31 +10609,31 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E95" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J95" t="s">
         <v>32</v>
@@ -10666,13 +10660,13 @@
         <v>32</v>
       </c>
       <c r="R95" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="S95" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U95" t="s">
         <v>32</v>
@@ -10692,22 +10686,22 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
+        <v>711</v>
+      </c>
+      <c r="D96" t="s">
+        <v>712</v>
+      </c>
+      <c r="E96" t="s">
         <v>713</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>714</v>
-      </c>
-      <c r="E96" t="s">
-        <v>715</v>
-      </c>
-      <c r="F96" t="s">
-        <v>716</v>
       </c>
       <c r="G96" t="s">
         <v>57</v>
@@ -10716,7 +10710,7 @@
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J96" t="s">
         <v>59</v>
@@ -10737,19 +10731,19 @@
         <v>32</v>
       </c>
       <c r="P96" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q96" t="s">
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S96" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U96" t="s">
         <v>32</v>
@@ -10769,7 +10763,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -10778,22 +10772,22 @@
         <v>111</v>
       </c>
       <c r="D97" t="s">
+        <v>719</v>
+      </c>
+      <c r="E97" t="s">
+        <v>720</v>
+      </c>
+      <c r="F97" t="s">
         <v>721</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>722</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s">
         <v>723</v>
-      </c>
-      <c r="G97" t="s">
-        <v>724</v>
-      </c>
-      <c r="H97" t="s">
-        <v>32</v>
-      </c>
-      <c r="I97" t="s">
-        <v>725</v>
       </c>
       <c r="J97" t="s">
         <v>69</v>
@@ -10817,10 +10811,10 @@
         <v>32</v>
       </c>
       <c r="Q97" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="R97" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="S97" t="s">
         <v>32</v>
@@ -10841,24 +10835,24 @@
         <v>190</v>
       </c>
       <c r="Y97" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F98" t="s">
         <v>76</v>
@@ -10876,10 +10870,10 @@
         <v>69</v>
       </c>
       <c r="K98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L98" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M98" t="s">
         <v>32</v>
@@ -10900,7 +10894,7 @@
         <v>32</v>
       </c>
       <c r="S98" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="T98" t="s">
         <v>32</v>
@@ -10923,22 +10917,22 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
+        <v>730</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>731</v>
+      </c>
+      <c r="E99" t="s">
         <v>732</v>
       </c>
-      <c r="B99" t="s">
-        <v>258</v>
-      </c>
-      <c r="C99" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>733</v>
-      </c>
-      <c r="E99" t="s">
-        <v>734</v>
-      </c>
-      <c r="F99" t="s">
-        <v>735</v>
       </c>
       <c r="G99" t="s">
         <v>57</v>
@@ -10974,13 +10968,13 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S99" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="T99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U99" t="s">
         <v>32</v>
@@ -11000,22 +10994,22 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E100" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G100" t="s">
         <v>57</v>
@@ -11024,34 +11018,34 @@
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J100" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K100" t="s">
         <v>34</v>
       </c>
       <c r="L100" t="s">
+        <v>741</v>
+      </c>
+      <c r="M100" t="s">
+        <v>32</v>
+      </c>
+      <c r="N100" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q100" t="s">
         <v>743</v>
       </c>
-      <c r="M100" t="s">
-        <v>32</v>
-      </c>
-      <c r="N100" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100" t="s">
-        <v>32</v>
-      </c>
-      <c r="P100" t="s">
+      <c r="R100" t="s">
         <v>744</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>745</v>
-      </c>
-      <c r="R100" t="s">
-        <v>746</v>
       </c>
       <c r="S100" t="s">
         <v>32</v>
@@ -11077,22 +11071,22 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E101" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G101" t="s">
         <v>57</v>
@@ -11101,34 +11095,34 @@
         <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J101" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K101" t="s">
         <v>34</v>
       </c>
       <c r="L101" t="s">
+        <v>747</v>
+      </c>
+      <c r="M101" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" t="s">
+        <v>32</v>
+      </c>
+      <c r="P101" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>736</v>
+      </c>
+      <c r="R101" t="s">
         <v>749</v>
-      </c>
-      <c r="M101" t="s">
-        <v>32</v>
-      </c>
-      <c r="N101" t="s">
-        <v>32</v>
-      </c>
-      <c r="O101" t="s">
-        <v>32</v>
-      </c>
-      <c r="P101" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>738</v>
-      </c>
-      <c r="R101" t="s">
-        <v>751</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
@@ -11154,7 +11148,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -11163,13 +11157,13 @@
         <v>111</v>
       </c>
       <c r="D102" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" t="s">
+        <v>752</v>
+      </c>
+      <c r="F102" t="s">
         <v>753</v>
-      </c>
-      <c r="E102" t="s">
-        <v>754</v>
-      </c>
-      <c r="F102" t="s">
-        <v>755</v>
       </c>
       <c r="G102" t="s">
         <v>57</v>
@@ -11178,13 +11172,13 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J102" t="s">
         <v>69</v>
       </c>
       <c r="K102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
@@ -11199,13 +11193,13 @@
         <v>32</v>
       </c>
       <c r="P102" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="Q102" t="s">
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="S102" t="s">
         <v>32</v>
@@ -11231,22 +11225,22 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E103" t="s">
+        <v>355</v>
+      </c>
+      <c r="F103" t="s">
         <v>356</v>
-      </c>
-      <c r="F103" t="s">
-        <v>357</v>
       </c>
       <c r="G103" t="s">
         <v>212</v>
@@ -11255,7 +11249,7 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J103" t="s">
         <v>69</v>
@@ -11279,16 +11273,16 @@
         <v>32</v>
       </c>
       <c r="Q103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R103" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="S103" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U103" t="s">
         <v>32</v>
@@ -11300,15 +11294,15 @@
         <v>32</v>
       </c>
       <c r="X103" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y103" t="s">
         <v>431</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -11317,13 +11311,13 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
+        <v>762</v>
+      </c>
+      <c r="E104" t="s">
+        <v>763</v>
+      </c>
+      <c r="F104" t="s">
         <v>764</v>
-      </c>
-      <c r="E104" t="s">
-        <v>765</v>
-      </c>
-      <c r="F104" t="s">
-        <v>766</v>
       </c>
       <c r="G104" t="s">
         <v>87</v>
@@ -11332,7 +11326,7 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J104" t="s">
         <v>69</v>
@@ -11356,10 +11350,10 @@
         <v>32</v>
       </c>
       <c r="Q104" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="R104" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="S104" t="s">
         <v>32</v>
@@ -11394,10 +11388,10 @@
         <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E105" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F105" t="s">
         <v>114</v>
@@ -11436,7 +11430,7 @@
         <v>110</v>
       </c>
       <c r="R105" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -11454,30 +11448,30 @@
         <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Y105" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D106" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E106" t="s">
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G106" t="s">
         <v>124</v>
@@ -11489,7 +11483,7 @@
         <v>32</v>
       </c>
       <c r="J106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K106" t="s">
         <v>34</v>
@@ -11513,13 +11507,13 @@
         <v>32</v>
       </c>
       <c r="R106" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="S106" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="T106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U106" t="s">
         <v>32</v>
@@ -11539,19 +11533,19 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
         <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E107" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F107" t="s">
         <v>76</v>
@@ -11569,31 +11563,31 @@
         <v>32</v>
       </c>
       <c r="K107" t="s">
+        <v>781</v>
+      </c>
+      <c r="L107" t="s">
+        <v>782</v>
+      </c>
+      <c r="M107" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" t="s">
+        <v>32</v>
+      </c>
+      <c r="O107" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>32</v>
+      </c>
+      <c r="R107" t="s">
+        <v>32</v>
+      </c>
+      <c r="S107" t="s">
         <v>783</v>
-      </c>
-      <c r="L107" t="s">
-        <v>784</v>
-      </c>
-      <c r="M107" t="s">
-        <v>32</v>
-      </c>
-      <c r="N107" t="s">
-        <v>32</v>
-      </c>
-      <c r="O107" t="s">
-        <v>32</v>
-      </c>
-      <c r="P107" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>32</v>
-      </c>
-      <c r="R107" t="s">
-        <v>32</v>
-      </c>
-      <c r="S107" t="s">
-        <v>785</v>
       </c>
       <c r="T107" t="s">
         <v>32</v>
@@ -11616,22 +11610,22 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E108" t="s">
         <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G108" t="s">
         <v>212</v>
@@ -11646,31 +11640,31 @@
         <v>69</v>
       </c>
       <c r="K108" t="s">
+        <v>787</v>
+      </c>
+      <c r="L108" t="s">
+        <v>788</v>
+      </c>
+      <c r="M108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N108" t="s">
+        <v>32</v>
+      </c>
+      <c r="O108" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>32</v>
+      </c>
+      <c r="R108" t="s">
+        <v>32</v>
+      </c>
+      <c r="S108" t="s">
         <v>789</v>
-      </c>
-      <c r="L108" t="s">
-        <v>790</v>
-      </c>
-      <c r="M108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N108" t="s">
-        <v>32</v>
-      </c>
-      <c r="O108" t="s">
-        <v>32</v>
-      </c>
-      <c r="P108" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>32</v>
-      </c>
-      <c r="R108" t="s">
-        <v>32</v>
-      </c>
-      <c r="S108" t="s">
-        <v>791</v>
       </c>
       <c r="T108" t="s">
         <v>32</v>
@@ -11693,22 +11687,22 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
+        <v>790</v>
+      </c>
+      <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" t="s">
+        <v>791</v>
+      </c>
+      <c r="E109" t="s">
         <v>792</v>
       </c>
-      <c r="B109" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" t="s">
-        <v>793</v>
-      </c>
-      <c r="E109" t="s">
-        <v>794</v>
-      </c>
       <c r="F109" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G109" t="s">
         <v>57</v>
@@ -11717,7 +11711,7 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J109" t="s">
         <v>69</v>
@@ -11744,13 +11738,13 @@
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="S109" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="T109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U109" t="s">
         <v>32</v>
@@ -11770,25 +11764,25 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E110" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G110" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H110" t="s">
         <v>32</v>
@@ -11824,10 +11818,10 @@
         <v>32</v>
       </c>
       <c r="S110" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="T110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U110" t="s">
         <v>32</v>
@@ -11847,10 +11841,10 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -11859,10 +11853,10 @@
         <v>54</v>
       </c>
       <c r="E111" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F111" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G111" t="s">
         <v>57</v>
@@ -11871,10 +11865,10 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J111" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K111" t="s">
         <v>34</v>
@@ -11895,54 +11889,54 @@
         <v>32</v>
       </c>
       <c r="Q111" t="s">
+        <v>805</v>
+      </c>
+      <c r="R111" t="s">
+        <v>806</v>
+      </c>
+      <c r="S111" t="s">
         <v>807</v>
       </c>
-      <c r="R111" t="s">
+      <c r="T111" t="s">
+        <v>264</v>
+      </c>
+      <c r="U111" t="s">
+        <v>32</v>
+      </c>
+      <c r="V111" t="s">
+        <v>32</v>
+      </c>
+      <c r="W111" t="s">
+        <v>32</v>
+      </c>
+      <c r="X111" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y111" t="s">
         <v>808</v>
-      </c>
-      <c r="S111" t="s">
-        <v>809</v>
-      </c>
-      <c r="T111" t="s">
-        <v>265</v>
-      </c>
-      <c r="U111" t="s">
-        <v>32</v>
-      </c>
-      <c r="V111" t="s">
-        <v>32</v>
-      </c>
-      <c r="W111" t="s">
-        <v>32</v>
-      </c>
-      <c r="X111" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="D112" t="s">
+        <v>810</v>
+      </c>
+      <c r="E112" t="s">
+        <v>811</v>
+      </c>
+      <c r="F112" t="s">
         <v>812</v>
       </c>
-      <c r="E112" t="s">
-        <v>813</v>
-      </c>
-      <c r="F112" t="s">
-        <v>814</v>
-      </c>
       <c r="G112" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H112" t="s">
         <v>32</v>
@@ -11978,10 +11972,10 @@
         <v>32</v>
       </c>
       <c r="S112" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="T112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U112" t="s">
         <v>32</v>
@@ -12001,64 +11995,64 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
+        <v>814</v>
+      </c>
+      <c r="B113" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" t="s">
+        <v>815</v>
+      </c>
+      <c r="D113" t="s">
         <v>816</v>
       </c>
-      <c r="B113" t="s">
-        <v>258</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
+        <v>434</v>
+      </c>
+      <c r="F113" t="s">
+        <v>435</v>
+      </c>
+      <c r="G113" t="s">
         <v>817</v>
       </c>
-      <c r="D113" t="s">
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s">
         <v>818</v>
       </c>
-      <c r="E113" t="s">
-        <v>435</v>
-      </c>
-      <c r="F113" t="s">
-        <v>436</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="J113" t="s">
         <v>819</v>
       </c>
-      <c r="H113" t="s">
-        <v>32</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
         <v>820</v>
       </c>
-      <c r="J113" t="s">
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" t="s">
+        <v>32</v>
+      </c>
+      <c r="O113" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" t="s">
         <v>821</v>
       </c>
-      <c r="K113" t="s">
+      <c r="Q113" t="s">
+        <v>32</v>
+      </c>
+      <c r="R113" t="s">
+        <v>32</v>
+      </c>
+      <c r="S113" t="s">
         <v>822</v>
       </c>
-      <c r="L113" t="s">
-        <v>32</v>
-      </c>
-      <c r="M113" t="s">
-        <v>32</v>
-      </c>
-      <c r="N113" t="s">
-        <v>32</v>
-      </c>
-      <c r="O113" t="s">
-        <v>32</v>
-      </c>
-      <c r="P113" t="s">
+      <c r="T113" t="s">
         <v>823</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>32</v>
-      </c>
-      <c r="R113" t="s">
-        <v>32</v>
-      </c>
-      <c r="S113" t="s">
-        <v>824</v>
-      </c>
-      <c r="T113" t="s">
-        <v>825</v>
       </c>
       <c r="U113" t="s">
         <v>32</v>
@@ -12078,7 +12072,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -12087,13 +12081,13 @@
         <v>27</v>
       </c>
       <c r="D114" t="s">
+        <v>825</v>
+      </c>
+      <c r="E114" t="s">
+        <v>826</v>
+      </c>
+      <c r="F114" t="s">
         <v>827</v>
-      </c>
-      <c r="E114" t="s">
-        <v>828</v>
-      </c>
-      <c r="F114" t="s">
-        <v>829</v>
       </c>
       <c r="G114" t="s">
         <v>212</v>
@@ -12102,10 +12096,10 @@
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K114" t="s">
         <v>34</v>
@@ -12129,7 +12123,7 @@
         <v>32</v>
       </c>
       <c r="R114" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="S114" t="s">
         <v>32</v>
@@ -12155,22 +12149,22 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" t="s">
+        <v>832</v>
+      </c>
+      <c r="E115" t="s">
+        <v>833</v>
+      </c>
+      <c r="F115" t="s">
         <v>834</v>
-      </c>
-      <c r="E115" t="s">
-        <v>835</v>
-      </c>
-      <c r="F115" t="s">
-        <v>836</v>
       </c>
       <c r="G115" t="s">
         <v>212</v>
@@ -12206,48 +12200,48 @@
         <v>32</v>
       </c>
       <c r="R115" t="s">
+        <v>835</v>
+      </c>
+      <c r="S115" t="s">
+        <v>836</v>
+      </c>
+      <c r="T115" t="s">
+        <v>264</v>
+      </c>
+      <c r="U115" t="s">
+        <v>32</v>
+      </c>
+      <c r="V115" t="s">
+        <v>32</v>
+      </c>
+      <c r="W115" t="s">
+        <v>32</v>
+      </c>
+      <c r="X115" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y115" t="s">
         <v>837</v>
-      </c>
-      <c r="S115" t="s">
-        <v>838</v>
-      </c>
-      <c r="T115" t="s">
-        <v>265</v>
-      </c>
-      <c r="U115" t="s">
-        <v>32</v>
-      </c>
-      <c r="V115" t="s">
-        <v>32</v>
-      </c>
-      <c r="W115" t="s">
-        <v>32</v>
-      </c>
-      <c r="X115" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E116" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F116" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G116" t="s">
         <v>57</v>
@@ -12259,37 +12253,37 @@
         <v>32</v>
       </c>
       <c r="J116" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K116" t="s">
         <v>34</v>
       </c>
       <c r="L116" t="s">
+        <v>840</v>
+      </c>
+      <c r="M116" t="s">
+        <v>32</v>
+      </c>
+      <c r="N116" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" t="s">
+        <v>32</v>
+      </c>
+      <c r="P116" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>32</v>
+      </c>
+      <c r="R116" t="s">
+        <v>841</v>
+      </c>
+      <c r="S116" t="s">
         <v>842</v>
       </c>
-      <c r="M116" t="s">
-        <v>32</v>
-      </c>
-      <c r="N116" t="s">
-        <v>32</v>
-      </c>
-      <c r="O116" t="s">
-        <v>32</v>
-      </c>
-      <c r="P116" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>32</v>
-      </c>
-      <c r="R116" t="s">
-        <v>843</v>
-      </c>
-      <c r="S116" t="s">
-        <v>844</v>
-      </c>
       <c r="T116" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U116" t="s">
         <v>32</v>
@@ -12309,22 +12303,22 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" t="s">
+        <v>844</v>
+      </c>
+      <c r="E117" t="s">
+        <v>845</v>
+      </c>
+      <c r="F117" t="s">
         <v>846</v>
-      </c>
-      <c r="E117" t="s">
-        <v>847</v>
-      </c>
-      <c r="F117" t="s">
-        <v>848</v>
       </c>
       <c r="G117" t="s">
         <v>57</v>
@@ -12333,7 +12327,7 @@
         <v>32</v>
       </c>
       <c r="I117" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J117" t="s">
         <v>69</v>
@@ -12360,13 +12354,13 @@
         <v>32</v>
       </c>
       <c r="R117" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="S117" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="T117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U117" t="s">
         <v>32</v>
@@ -12378,15 +12372,15 @@
         <v>32</v>
       </c>
       <c r="X117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y117" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -12395,13 +12389,13 @@
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F118" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G118" t="s">
         <v>87</v>
@@ -12410,7 +12404,7 @@
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J118" t="s">
         <v>69</v>
@@ -12437,7 +12431,7 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S118" t="s">
         <v>32</v>
@@ -12458,27 +12452,27 @@
         <v>81</v>
       </c>
       <c r="Y118" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
+        <v>856</v>
+      </c>
+      <c r="E119" t="s">
+        <v>857</v>
+      </c>
+      <c r="F119" t="s">
         <v>858</v>
-      </c>
-      <c r="E119" t="s">
-        <v>859</v>
-      </c>
-      <c r="F119" t="s">
-        <v>860</v>
       </c>
       <c r="G119" t="s">
         <v>212</v>
@@ -12487,7 +12481,7 @@
         <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J119" t="s">
         <v>69</v>
@@ -12511,10 +12505,10 @@
         <v>32</v>
       </c>
       <c r="Q119" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="R119" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
@@ -12535,30 +12529,30 @@
         <v>50</v>
       </c>
       <c r="Y119" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" t="s">
+        <v>864</v>
+      </c>
+      <c r="E120" t="s">
+        <v>865</v>
+      </c>
+      <c r="F120" t="s">
         <v>866</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>867</v>
-      </c>
-      <c r="F120" t="s">
-        <v>868</v>
-      </c>
-      <c r="G120" t="s">
-        <v>869</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
@@ -12594,10 +12588,10 @@
         <v>32</v>
       </c>
       <c r="S120" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="T120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U120" t="s">
         <v>32</v>
@@ -12617,19 +12611,19 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E121" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F121" t="s">
         <v>76</v>
@@ -12647,7 +12641,7 @@
         <v>69</v>
       </c>
       <c r="K121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L121" t="s">
         <v>32</v>
@@ -12671,7 +12665,7 @@
         <v>32</v>
       </c>
       <c r="S121" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="T121" t="s">
         <v>32</v>
@@ -12694,22 +12688,22 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" t="s">
+        <v>872</v>
+      </c>
+      <c r="E122" t="s">
+        <v>873</v>
+      </c>
+      <c r="F122" t="s">
         <v>874</v>
-      </c>
-      <c r="E122" t="s">
-        <v>875</v>
-      </c>
-      <c r="F122" t="s">
-        <v>876</v>
       </c>
       <c r="G122" t="s">
         <v>124</v>
@@ -12771,22 +12765,22 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" t="s">
+        <v>875</v>
+      </c>
+      <c r="E123" t="s">
+        <v>876</v>
+      </c>
+      <c r="F123" t="s">
         <v>877</v>
-      </c>
-      <c r="E123" t="s">
-        <v>878</v>
-      </c>
-      <c r="F123" t="s">
-        <v>879</v>
       </c>
       <c r="G123" t="s">
         <v>57</v>
@@ -12795,10 +12789,10 @@
         <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J123" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K123" t="s">
         <v>34</v>
@@ -12816,19 +12810,19 @@
         <v>32</v>
       </c>
       <c r="P123" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="Q123" t="s">
         <v>32</v>
       </c>
       <c r="R123" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="S123" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="T123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U123" t="s">
         <v>32</v>
@@ -12848,7 +12842,7 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B124" t="s">
         <v>26</v>
@@ -12857,16 +12851,16 @@
         <v>27</v>
       </c>
       <c r="D124" t="s">
+        <v>882</v>
+      </c>
+      <c r="E124" t="s">
+        <v>883</v>
+      </c>
+      <c r="F124" t="s">
+        <v>529</v>
+      </c>
+      <c r="G124" t="s">
         <v>884</v>
-      </c>
-      <c r="E124" t="s">
-        <v>885</v>
-      </c>
-      <c r="F124" t="s">
-        <v>530</v>
-      </c>
-      <c r="G124" t="s">
-        <v>886</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -12878,7 +12872,7 @@
         <v>69</v>
       </c>
       <c r="K124" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L124" t="s">
         <v>32</v>
@@ -12899,7 +12893,7 @@
         <v>32</v>
       </c>
       <c r="R124" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="S124" t="s">
         <v>32</v>
@@ -12925,22 +12919,22 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E125" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G125" t="s">
         <v>57</v>
@@ -12955,7 +12949,7 @@
         <v>32</v>
       </c>
       <c r="K125" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L125" t="s">
         <v>32</v>
@@ -12979,10 +12973,10 @@
         <v>32</v>
       </c>
       <c r="S125" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="T125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U125" t="s">
         <v>32</v>
@@ -13002,22 +12996,22 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E126" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G126" t="s">
         <v>57</v>
@@ -13026,7 +13020,7 @@
         <v>32</v>
       </c>
       <c r="I126" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J126" t="s">
         <v>69</v>
@@ -13053,13 +13047,13 @@
         <v>32</v>
       </c>
       <c r="R126" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="S126" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="T126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U126" t="s">
         <v>32</v>
@@ -13071,30 +13065,30 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y126" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" t="s">
+        <v>898</v>
+      </c>
+      <c r="E127" t="s">
+        <v>899</v>
+      </c>
+      <c r="F127" t="s">
         <v>900</v>
-      </c>
-      <c r="E127" t="s">
-        <v>901</v>
-      </c>
-      <c r="F127" t="s">
-        <v>902</v>
       </c>
       <c r="G127" t="s">
         <v>212</v>
@@ -13109,10 +13103,10 @@
         <v>69</v>
       </c>
       <c r="K127" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L127" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M127" t="s">
         <v>32</v>
@@ -13133,7 +13127,7 @@
         <v>32</v>
       </c>
       <c r="S127" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="T127" t="s">
         <v>32</v>
@@ -13156,22 +13150,22 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E128" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F128" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G128" t="s">
         <v>212</v>
@@ -13186,10 +13180,10 @@
         <v>32</v>
       </c>
       <c r="K128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L128" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="M128" t="s">
         <v>32</v>
@@ -13210,7 +13204,7 @@
         <v>32</v>
       </c>
       <c r="S128" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T128" t="s">
         <v>32</v>
@@ -13233,25 +13227,25 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" t="s">
+        <v>909</v>
+      </c>
+      <c r="E129" t="s">
+        <v>910</v>
+      </c>
+      <c r="F129" t="s">
         <v>911</v>
       </c>
-      <c r="E129" t="s">
-        <v>912</v>
-      </c>
-      <c r="F129" t="s">
-        <v>913</v>
-      </c>
       <c r="G129" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H129" t="s">
         <v>32</v>
@@ -13287,10 +13281,10 @@
         <v>32</v>
       </c>
       <c r="S129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="T129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U129" t="s">
         <v>32</v>
@@ -13310,19 +13304,19 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E130" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F130" t="s">
         <v>105</v>
@@ -13334,10 +13328,10 @@
         <v>32</v>
       </c>
       <c r="I130" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K130" t="s">
         <v>34</v>
@@ -13361,10 +13355,10 @@
         <v>32</v>
       </c>
       <c r="R130" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S130" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="T130" t="s">
         <v>32</v>
@@ -13387,25 +13381,25 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E131" t="s">
         <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G131" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -13438,13 +13432,13 @@
         <v>32</v>
       </c>
       <c r="R131" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="S131" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="T131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U131" t="s">
         <v>32</v>
@@ -13464,22 +13458,22 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" t="s">
+        <v>924</v>
+      </c>
+      <c r="E132" t="s">
+        <v>925</v>
+      </c>
+      <c r="F132" t="s">
         <v>926</v>
-      </c>
-      <c r="E132" t="s">
-        <v>927</v>
-      </c>
-      <c r="F132" t="s">
-        <v>928</v>
       </c>
       <c r="G132" t="s">
         <v>57</v>
@@ -13488,7 +13482,7 @@
         <v>32</v>
       </c>
       <c r="I132" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J132" t="s">
         <v>69</v>
@@ -13515,48 +13509,48 @@
         <v>32</v>
       </c>
       <c r="R132" t="s">
+        <v>928</v>
+      </c>
+      <c r="S132" t="s">
+        <v>929</v>
+      </c>
+      <c r="T132" t="s">
+        <v>695</v>
+      </c>
+      <c r="U132" t="s">
+        <v>32</v>
+      </c>
+      <c r="V132" t="s">
+        <v>32</v>
+      </c>
+      <c r="W132" t="s">
+        <v>32</v>
+      </c>
+      <c r="X132" t="s">
         <v>930</v>
       </c>
-      <c r="S132" t="s">
+      <c r="Y132" t="s">
         <v>931</v>
-      </c>
-      <c r="T132" t="s">
-        <v>697</v>
-      </c>
-      <c r="U132" t="s">
-        <v>32</v>
-      </c>
-      <c r="V132" t="s">
-        <v>32</v>
-      </c>
-      <c r="W132" t="s">
-        <v>32</v>
-      </c>
-      <c r="X132" t="s">
-        <v>932</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E133" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G133" t="s">
         <v>57</v>
@@ -13595,10 +13589,10 @@
         <v>32</v>
       </c>
       <c r="S133" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="T133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U133" t="s">
         <v>32</v>
@@ -13618,25 +13612,25 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C134" t="s">
         <v>102</v>
       </c>
       <c r="D134" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E134" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G134" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H134" t="s">
         <v>32</v>
@@ -13669,51 +13663,51 @@
         <v>32</v>
       </c>
       <c r="R134" t="s">
+        <v>939</v>
+      </c>
+      <c r="S134" t="s">
+        <v>940</v>
+      </c>
+      <c r="T134" t="s">
         <v>941</v>
       </c>
-      <c r="S134" t="s">
+      <c r="U134" t="s">
+        <v>32</v>
+      </c>
+      <c r="V134" t="s">
+        <v>32</v>
+      </c>
+      <c r="W134" t="s">
+        <v>32</v>
+      </c>
+      <c r="X134" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y134" t="s">
         <v>942</v>
-      </c>
-      <c r="T134" t="s">
-        <v>943</v>
-      </c>
-      <c r="U134" t="s">
-        <v>32</v>
-      </c>
-      <c r="V134" t="s">
-        <v>32</v>
-      </c>
-      <c r="W134" t="s">
-        <v>32</v>
-      </c>
-      <c r="X134" t="s">
-        <v>501</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E135" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F135" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -13746,13 +13740,13 @@
         <v>32</v>
       </c>
       <c r="R135" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="S135" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="T135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U135" t="s">
         <v>32</v>
@@ -13764,33 +13758,33 @@
         <v>32</v>
       </c>
       <c r="X135" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y135" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E136" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H136" t="s">
         <v>32</v>
@@ -13820,16 +13814,16 @@
         <v>32</v>
       </c>
       <c r="Q136" t="s">
+        <v>950</v>
+      </c>
+      <c r="R136" t="s">
+        <v>951</v>
+      </c>
+      <c r="S136" t="s">
         <v>952</v>
       </c>
-      <c r="R136" t="s">
-        <v>953</v>
-      </c>
-      <c r="S136" t="s">
-        <v>954</v>
-      </c>
       <c r="T136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U136" t="s">
         <v>32</v>
@@ -13841,30 +13835,30 @@
         <v>32</v>
       </c>
       <c r="X136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137" t="s">
+        <v>954</v>
+      </c>
+      <c r="E137" t="s">
+        <v>955</v>
+      </c>
+      <c r="F137" t="s">
         <v>956</v>
-      </c>
-      <c r="E137" t="s">
-        <v>957</v>
-      </c>
-      <c r="F137" t="s">
-        <v>958</v>
       </c>
       <c r="G137" t="s">
         <v>212</v>
@@ -13879,7 +13873,7 @@
         <v>69</v>
       </c>
       <c r="K137" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L137" t="s">
         <v>32</v>
@@ -13903,10 +13897,10 @@
         <v>32</v>
       </c>
       <c r="S137" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="T137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U137" t="s">
         <v>32</v>
@@ -13926,34 +13920,34 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E138" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F138" t="s">
+        <v>293</v>
+      </c>
+      <c r="G138" t="s">
+        <v>798</v>
+      </c>
+      <c r="H138" t="s">
+        <v>32</v>
+      </c>
+      <c r="I138" t="s">
+        <v>32</v>
+      </c>
+      <c r="J138" t="s">
         <v>294</v>
-      </c>
-      <c r="G138" t="s">
-        <v>800</v>
-      </c>
-      <c r="H138" t="s">
-        <v>32</v>
-      </c>
-      <c r="I138" t="s">
-        <v>32</v>
-      </c>
-      <c r="J138" t="s">
-        <v>295</v>
       </c>
       <c r="K138" t="s">
         <v>198</v>
@@ -13980,10 +13974,10 @@
         <v>32</v>
       </c>
       <c r="S138" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="T138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U138" t="s">
         <v>32</v>
@@ -14003,22 +13997,22 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
       </c>
       <c r="D139" t="s">
+        <v>963</v>
+      </c>
+      <c r="E139" t="s">
+        <v>964</v>
+      </c>
+      <c r="F139" t="s">
         <v>965</v>
-      </c>
-      <c r="E139" t="s">
-        <v>966</v>
-      </c>
-      <c r="F139" t="s">
-        <v>967</v>
       </c>
       <c r="G139" t="s">
         <v>57</v>
@@ -14057,10 +14051,10 @@
         <v>32</v>
       </c>
       <c r="S139" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="T139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U139" t="s">
         <v>32</v>
@@ -14080,7 +14074,7 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
@@ -14089,28 +14083,28 @@
         <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E140" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F140" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G140" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H140" t="s">
         <v>32</v>
       </c>
       <c r="I140" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J140" t="s">
         <v>69</v>
       </c>
       <c r="K140" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L140" t="s">
         <v>32</v>
@@ -14131,7 +14125,7 @@
         <v>32</v>
       </c>
       <c r="R140" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="S140" t="s">
         <v>32</v>
@@ -14157,25 +14151,25 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E141" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G141" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H141" t="s">
         <v>32</v>
@@ -14211,10 +14205,10 @@
         <v>32</v>
       </c>
       <c r="S141" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="T141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U141" t="s">
         <v>32</v>
@@ -14234,7 +14228,7 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B142" t="s">
         <v>26</v>
@@ -14243,25 +14237,25 @@
         <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E142" t="s">
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G142" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H142" t="s">
         <v>32</v>
       </c>
       <c r="I142" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J142" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K142" t="s">
         <v>34</v>
@@ -14282,10 +14276,10 @@
         <v>32</v>
       </c>
       <c r="Q142" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="R142" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="S142" t="s">
         <v>32</v>
@@ -14306,36 +14300,36 @@
         <v>108</v>
       </c>
       <c r="Y142" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" t="s">
+        <v>982</v>
+      </c>
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" t="s">
+        <v>337</v>
+      </c>
+      <c r="D143" t="s">
+        <v>983</v>
+      </c>
+      <c r="E143" t="s">
+        <v>659</v>
+      </c>
+      <c r="F143" t="s">
+        <v>660</v>
+      </c>
+      <c r="G143" t="s">
+        <v>661</v>
+      </c>
+      <c r="H143" t="s">
+        <v>32</v>
+      </c>
+      <c r="I143" t="s">
         <v>984</v>
-      </c>
-      <c r="B143" t="s">
-        <v>258</v>
-      </c>
-      <c r="C143" t="s">
-        <v>338</v>
-      </c>
-      <c r="D143" t="s">
-        <v>985</v>
-      </c>
-      <c r="E143" t="s">
-        <v>661</v>
-      </c>
-      <c r="F143" t="s">
-        <v>662</v>
-      </c>
-      <c r="G143" t="s">
-        <v>663</v>
-      </c>
-      <c r="H143" t="s">
-        <v>32</v>
-      </c>
-      <c r="I143" t="s">
-        <v>986</v>
       </c>
       <c r="J143" t="s">
         <v>69</v>
@@ -14359,16 +14353,16 @@
         <v>32</v>
       </c>
       <c r="Q143" t="s">
+        <v>985</v>
+      </c>
+      <c r="R143" t="s">
+        <v>986</v>
+      </c>
+      <c r="S143" t="s">
         <v>987</v>
       </c>
-      <c r="R143" t="s">
-        <v>988</v>
-      </c>
-      <c r="S143" t="s">
-        <v>989</v>
-      </c>
       <c r="T143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U143" t="s">
         <v>32</v>
@@ -14388,22 +14382,22 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
       </c>
       <c r="D144" t="s">
+        <v>989</v>
+      </c>
+      <c r="E144" t="s">
+        <v>990</v>
+      </c>
+      <c r="F144" t="s">
         <v>991</v>
-      </c>
-      <c r="E144" t="s">
-        <v>992</v>
-      </c>
-      <c r="F144" t="s">
-        <v>993</v>
       </c>
       <c r="G144" t="s">
         <v>57</v>
@@ -14415,7 +14409,7 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K144" t="s">
         <v>198</v>
@@ -14442,10 +14436,10 @@
         <v>32</v>
       </c>
       <c r="S144" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="T144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U144" t="s">
         <v>32</v>
@@ -14465,22 +14459,22 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" t="s">
+        <v>993</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
+        <v>337</v>
+      </c>
+      <c r="D145" t="s">
+        <v>994</v>
+      </c>
+      <c r="E145" t="s">
         <v>995</v>
       </c>
-      <c r="B145" t="s">
-        <v>258</v>
-      </c>
-      <c r="C145" t="s">
-        <v>338</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>996</v>
-      </c>
-      <c r="E145" t="s">
-        <v>997</v>
-      </c>
-      <c r="F145" t="s">
-        <v>998</v>
       </c>
       <c r="G145" t="s">
         <v>57</v>
@@ -14489,7 +14483,7 @@
         <v>32</v>
       </c>
       <c r="I145" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J145" t="s">
         <v>126</v>
@@ -14510,19 +14504,19 @@
         <v>32</v>
       </c>
       <c r="P145" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>32</v>
+      </c>
+      <c r="R145" t="s">
+        <v>999</v>
+      </c>
+      <c r="S145" t="s">
         <v>1000</v>
       </c>
-      <c r="Q145" t="s">
-        <v>32</v>
-      </c>
-      <c r="R145" t="s">
-        <v>1001</v>
-      </c>
-      <c r="S145" t="s">
-        <v>1002</v>
-      </c>
       <c r="T145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U145" t="s">
         <v>32</v>
@@ -14537,12 +14531,12 @@
         <v>81</v>
       </c>
       <c r="Y145" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B146" t="s">
         <v>26</v>
@@ -14551,28 +14545,28 @@
         <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E146" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H146" t="s">
         <v>32</v>
       </c>
       <c r="I146" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="J146" t="s">
         <v>69</v>
       </c>
       <c r="K146" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L146" t="s">
         <v>32</v>
@@ -14593,7 +14587,7 @@
         <v>32</v>
       </c>
       <c r="R146" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="S146" t="s">
         <v>32</v>
@@ -14602,10 +14596,10 @@
         <v>32</v>
       </c>
       <c r="U146" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="V146" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="W146" t="s">
         <v>32</v>
@@ -14614,7 +14608,7 @@
         <v>50</v>
       </c>
       <c r="Y146" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
